--- a/05 snowballing extraction results.xlsx
+++ b/05 snowballing extraction results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel Lehner\Desktop\Repos\Paper\MDE4DTs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62D6770-586E-40AB-90DC-59770CE1B246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74ACF525-B34D-4AD6-8568-264E9AC70067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="extraction consolidation result" sheetId="1" r:id="rId1"/>
@@ -153,7 +153,7 @@
     <t>Reference Paper</t>
   </si>
   <si>
-    <t>S26</t>
+    <t>S27</t>
   </si>
 </sst>
 </file>
@@ -1091,19 +1091,19 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C17" sqref="C17"/>
+      <selection pane="topRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="114.33203125" customWidth="1"/>
-    <col min="4" max="4" width="42.109375" customWidth="1"/>
+    <col min="3" max="3" width="114.28515625" customWidth="1"/>
+    <col min="4" max="4" width="42.140625" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.33203125" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D1" s="5" t="s">
         <v>33</v>
       </c>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="T1" s="7"/>
     </row>
-    <row r="2" spans="1:20" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>8</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>8</v>
       </c>
